--- a/spring21_models/validation_set.xlsx
+++ b/spring21_models/validation_set.xlsx
@@ -22,22 +22,22 @@
     <t>value_over_replacement_player</t>
   </si>
   <si>
+    <t>poss</t>
+  </si>
+  <si>
     <t>war_total</t>
+  </si>
+  <si>
+    <t>offensive_win_shares</t>
   </si>
   <si>
     <t>war_reg_season</t>
   </si>
   <si>
-    <t>poss</t>
-  </si>
-  <si>
-    <t>offensive_win_shares</t>
+    <t>offensive_box_plus_minus</t>
   </si>
   <si>
     <t>minutes_played</t>
-  </si>
-  <si>
-    <t>offensive_box_plus_minus</t>
   </si>
   <si>
     <t>predator_offense</t>
@@ -441,1437 +441,1437 @@
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="1">
-        <v>11</v>
+        <v>354</v>
       </c>
       <c r="B2">
-        <v>0.821047525313871</v>
+        <v>-0.2025355912930029</v>
       </c>
       <c r="C2">
-        <v>0.5446595415394083</v>
+        <v>-0.6120770310114449</v>
       </c>
       <c r="D2">
-        <v>0.1698389614050958</v>
+        <v>-0.4317680210512999</v>
       </c>
       <c r="E2">
-        <v>0.4356366551311599</v>
+        <v>-1.083575362566187</v>
       </c>
       <c r="F2">
-        <v>0.5269824765414982</v>
+        <v>-0.7415326345357883</v>
       </c>
       <c r="G2">
-        <v>0.7588201052324531</v>
+        <v>-1.218305938194205</v>
       </c>
       <c r="H2">
-        <v>0.6668613034374357</v>
+        <v>0.3999687244517954</v>
       </c>
       <c r="I2">
-        <v>-0.1597526826521599</v>
+        <v>-1.494231101526195</v>
       </c>
       <c r="J2">
-        <v>-0.9744345347561464</v>
+        <v>-0.4026719050537678</v>
       </c>
       <c r="K2">
-        <v>1.801485262066927</v>
+        <v>-1.162287464290296</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="1">
-        <v>286</v>
+        <v>293</v>
       </c>
       <c r="B3">
-        <v>2.593173054263012</v>
+        <v>1.301009091917556</v>
       </c>
       <c r="C3">
-        <v>3.474162219435875</v>
+        <v>0.7300677839775067</v>
       </c>
       <c r="D3">
-        <v>2.774237609629372</v>
+        <v>1.010103767322021</v>
       </c>
       <c r="E3">
-        <v>3.24135537298742</v>
+        <v>0.006309675321496394</v>
       </c>
       <c r="F3">
-        <v>1.457786725297779</v>
+        <v>1.124013527388766</v>
       </c>
       <c r="G3">
-        <v>2.597499590988013</v>
+        <v>0.09850636347967724</v>
       </c>
       <c r="H3">
-        <v>1.301598437491654</v>
+        <v>0.2616933401858518</v>
       </c>
       <c r="I3">
-        <v>3.089989523739564</v>
+        <v>1.231903854670842</v>
       </c>
       <c r="J3">
-        <v>3.20507589738938</v>
+        <v>-0.6103958201499413</v>
       </c>
       <c r="K3">
-        <v>1.406460782914903</v>
+        <v>1.398271587930902</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="1">
-        <v>302</v>
+        <v>18</v>
       </c>
       <c r="B4">
-        <v>0.0995499163037538</v>
+        <v>-0.21596426541811</v>
       </c>
       <c r="C4">
-        <v>-0.009570694819382631</v>
+        <v>-0.3883862285132863</v>
       </c>
       <c r="D4">
-        <v>0.1051168652225155</v>
+        <v>1.700331840265494</v>
       </c>
       <c r="E4">
-        <v>0.1518579377207153</v>
+        <v>-0.2778916304264731</v>
       </c>
       <c r="F4">
-        <v>-0.1252751276242837</v>
+        <v>0.7509042950038549</v>
       </c>
       <c r="G4">
-        <v>0.9816903459300966</v>
+        <v>-0.2982963796078037</v>
       </c>
       <c r="H4">
-        <v>0.07677904313577577</v>
+        <v>0.07732616116459362</v>
       </c>
       <c r="I4">
-        <v>-0.01845954324382408</v>
+        <v>0.9547522033571122</v>
       </c>
       <c r="J4">
-        <v>-0.2942066788050242</v>
+        <v>-0.1329483264479546</v>
       </c>
       <c r="K4">
-        <v>1.011436303762878</v>
+        <v>0.3740479670424225</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="1">
-        <v>164</v>
+        <v>64</v>
       </c>
       <c r="B5">
-        <v>-0.6412797788265142</v>
+        <v>-0.6187582356267259</v>
       </c>
       <c r="C5">
-        <v>-0.6429766792294295</v>
+        <v>-0.5375134301787254</v>
       </c>
       <c r="D5">
-        <v>-0.5256213339763091</v>
+        <v>-1.130370954333824</v>
       </c>
       <c r="E5">
-        <v>-0.5360948322259428</v>
+        <v>-0.7086637939887755</v>
       </c>
       <c r="F5">
-        <v>-0.1690368199165567</v>
+        <v>-0.1552181265023571</v>
       </c>
       <c r="G5">
-        <v>0.5359498645348095</v>
+        <v>-0.7653332407256643</v>
       </c>
       <c r="H5">
-        <v>0.1884162275171709</v>
+        <v>0.07732616116459362</v>
       </c>
       <c r="I5">
-        <v>0.4996153012534073</v>
+        <v>-0.9447901085709063</v>
       </c>
       <c r="J5">
-        <v>-0.2064182115496088</v>
+        <v>-0.9855864203857505</v>
       </c>
       <c r="K5">
-        <v>-1.259954451361267</v>
+        <v>-0.7525980159349046</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="1">
-        <v>53</v>
+        <v>258</v>
       </c>
       <c r="B6">
-        <v>-0.2743442393089451</v>
+        <v>-0.5287517335160287</v>
       </c>
       <c r="C6">
-        <v>-0.08874644287063847</v>
+        <v>-0.1646954260151278</v>
       </c>
       <c r="D6">
-        <v>-0.264658733503043</v>
+        <v>0.02256815234222971</v>
       </c>
       <c r="E6">
-        <v>-0.2256520403409175</v>
+        <v>-0.1928285223019547</v>
       </c>
       <c r="F6">
-        <v>-0.4461942044342851</v>
+        <v>-0.6349299967115281</v>
       </c>
       <c r="G6">
-        <v>-0.07694329738371039</v>
+        <v>-0.1420948185238403</v>
       </c>
       <c r="H6">
-        <v>-0.2278309885334595</v>
+        <v>-0.2453164021226081</v>
       </c>
       <c r="I6">
-        <v>0.3112244487089595</v>
+        <v>0.3307557954285396</v>
       </c>
       <c r="J6">
-        <v>-0.4032765191316532</v>
+        <v>-0.2857073435447252</v>
       </c>
       <c r="K6">
-        <v>-0.1736371336931979</v>
+        <v>0.2716256049535747</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="1">
-        <v>257</v>
+        <v>104</v>
       </c>
       <c r="B7">
-        <v>-0.5949076548033995</v>
+        <v>-1.276341126521931</v>
       </c>
       <c r="C7">
-        <v>-0.5638009311781736</v>
+        <v>-1.059458636007762</v>
       </c>
       <c r="D7">
-        <v>-0.7861903985275073</v>
+        <v>-0.1763347807102372</v>
       </c>
       <c r="E7">
-        <v>-0.8460694712410464</v>
+        <v>-1.058518698667307</v>
       </c>
       <c r="F7">
-        <v>0.01226161958000255</v>
+        <v>-0.9014365912721787</v>
       </c>
       <c r="G7">
-        <v>-0.4669662186045866</v>
+        <v>-1.025300195938674</v>
       </c>
       <c r="H7">
-        <v>-0.4511053572962497</v>
+        <v>-1.028876912962955</v>
       </c>
       <c r="I7">
-        <v>-0.6307298140132793</v>
+        <v>-0.4488345220094953</v>
       </c>
       <c r="J7">
-        <v>-0.8469373948212143</v>
+        <v>-1.238909021549676</v>
       </c>
       <c r="K7">
-        <v>-0.5686616128452231</v>
+        <v>-1.162287464290296</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="1">
-        <v>220</v>
+        <v>78</v>
       </c>
       <c r="B8">
-        <v>0.3068265131485483</v>
+        <v>-0.5916884207118533</v>
       </c>
       <c r="C8">
-        <v>0.5446595415394083</v>
+        <v>-0.9103314343423232</v>
       </c>
       <c r="D8">
-        <v>0.2199697612673235</v>
+        <v>-0.05071187562446861</v>
       </c>
       <c r="E8">
-        <v>0.3508651413192281</v>
+        <v>-0.0003591891381561752</v>
       </c>
       <c r="F8">
-        <v>0.9145860368444869</v>
+        <v>-0.7415326345357883</v>
       </c>
       <c r="G8">
-        <v>1.371713267150973</v>
+        <v>-0.09746702058511802</v>
       </c>
       <c r="H8">
-        <v>1.263322831418032</v>
+        <v>-0.7984179391863826</v>
       </c>
       <c r="I8">
-        <v>0.5467130143895191</v>
+        <v>0.168678806356183</v>
       </c>
       <c r="J8">
-        <v>-0.01765142019191977</v>
+        <v>-0.03209121705099582</v>
       </c>
       <c r="K8">
-        <v>1.110192423550884</v>
+        <v>-0.1380638434018172</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="1">
-        <v>3</v>
+        <v>320</v>
       </c>
       <c r="B9">
-        <v>1.550874115217985</v>
+        <v>-0.3212731667804269</v>
       </c>
       <c r="C9">
-        <v>1.969823006462014</v>
+        <v>-0.2392590268478473</v>
       </c>
       <c r="D9">
-        <v>0.07568089705804323</v>
+        <v>-0.9321659263096113</v>
       </c>
       <c r="E9">
-        <v>0.4642877673279626</v>
+        <v>-0.4892574915639575</v>
       </c>
       <c r="F9">
-        <v>2.520570680967265</v>
+        <v>0.3244937437068139</v>
       </c>
       <c r="G9">
-        <v>3.321827873255355</v>
+        <v>-0.5216276347369947</v>
       </c>
       <c r="H9">
-        <v>2.242540420134841</v>
+        <v>-0.1992246073672936</v>
       </c>
       <c r="I9">
-        <v>1.77125355592843</v>
+        <v>-0.8832008527234108</v>
       </c>
       <c r="J9">
-        <v>0.9677500350407006</v>
+        <v>-0.5545225420660462</v>
       </c>
       <c r="K9">
-        <v>0.9126801839748711</v>
+        <v>-0.240486205490665</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="1">
-        <v>218</v>
+        <v>122</v>
       </c>
       <c r="B10">
-        <v>1.384791969497037</v>
+        <v>2.588669826729395</v>
       </c>
       <c r="C10">
-        <v>0.9405382817956875</v>
+        <v>2.743285006460934</v>
       </c>
       <c r="D10">
-        <v>1.089375564091517</v>
+        <v>1.591458655857828</v>
       </c>
       <c r="E10">
-        <v>0.8138239023371326</v>
+        <v>2.214778380313254</v>
       </c>
       <c r="F10">
-        <v>1.14103542870609</v>
+        <v>2.882957051489059</v>
       </c>
       <c r="G10">
-        <v>1.650301068023028</v>
+        <v>2.355754003003337</v>
       </c>
       <c r="H10">
-        <v>1.204314605387866</v>
+        <v>2.289732309419692</v>
       </c>
       <c r="I10">
-        <v>0.6880061537978551</v>
+        <v>1.722997131560082</v>
       </c>
       <c r="J10">
-        <v>0.2375202313318714</v>
+        <v>1.517256028539145</v>
       </c>
       <c r="K10">
-        <v>1.99899750164294</v>
+        <v>1.807961036286293</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="1">
-        <v>271</v>
+        <v>242</v>
       </c>
       <c r="B11">
-        <v>-0.7026975369300957</v>
+        <v>-0.1674934528010753</v>
       </c>
       <c r="C11">
-        <v>-0.4054494350756618</v>
+        <v>-0.2392590268478473</v>
       </c>
       <c r="D11">
-        <v>-0.6109472675774917</v>
+        <v>-0.877031429077524</v>
       </c>
       <c r="E11">
-        <v>-0.7815552867375323</v>
+        <v>-0.155328257134614</v>
       </c>
       <c r="F11">
-        <v>-0.9824485925237246</v>
+        <v>0.05798714914616344</v>
       </c>
       <c r="G11">
-        <v>-0.5226837787789975</v>
+        <v>-0.1807279008030724</v>
       </c>
       <c r="H11">
-        <v>-1.044377251437378</v>
+        <v>-0.153132812611979</v>
       </c>
       <c r="I11">
-        <v>0.6880061537978551</v>
+        <v>-0.7794715797171026</v>
       </c>
       <c r="J11">
-        <v>0.1363346676013648</v>
+        <v>0.2085453099470457</v>
       </c>
       <c r="K11">
-        <v>-0.8649299722092419</v>
+        <v>-0.1380638434018172</v>
       </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="1">
-        <v>54</v>
+        <v>95</v>
       </c>
       <c r="B12">
-        <v>-0.0444163585323636</v>
+        <v>-0.8305984536977384</v>
       </c>
       <c r="C12">
-        <v>-0.5638009311781736</v>
+        <v>-0.4629498293460059</v>
       </c>
       <c r="D12">
-        <v>0.3449590955907655</v>
+        <v>-1.628675144507372</v>
       </c>
       <c r="E12">
-        <v>0.4995532592060484</v>
+        <v>-0.8684179637489061</v>
       </c>
       <c r="F12">
-        <v>0.5304556267234247</v>
+        <v>-0.5283273588872679</v>
       </c>
       <c r="G12">
-        <v>-0.2998135380813539</v>
+        <v>-0.9404491968693913</v>
       </c>
       <c r="H12">
-        <v>0.8821615876015548</v>
+        <v>0.07732616116459362</v>
       </c>
       <c r="I12">
-        <v>-0.913316092829951</v>
+        <v>-1.604443454095397</v>
       </c>
       <c r="J12">
-        <v>-0.4710696651658022</v>
+        <v>-0.4109007330561962</v>
       </c>
       <c r="K12">
-        <v>0.2213873454588272</v>
+        <v>-1.059865102201448</v>
       </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="1">
-        <v>379</v>
+        <v>20</v>
       </c>
       <c r="B13">
-        <v>-0.657153085629553</v>
+        <v>1.036258358116913</v>
       </c>
       <c r="C13">
-        <v>-0.7221524272806854</v>
+        <v>0.357249779813909</v>
       </c>
       <c r="D13">
-        <v>-0.8794264888370608</v>
+        <v>0.5264555827418125</v>
       </c>
       <c r="E13">
-        <v>-0.9569837253435507</v>
+        <v>0.4281495789135762</v>
       </c>
       <c r="F13">
-        <v>-1.245018746277362</v>
+        <v>-0.2085194454144871</v>
       </c>
       <c r="G13">
-        <v>-0.9127066999998739</v>
+        <v>0.6838605278253832</v>
       </c>
       <c r="H13">
-        <v>-1.374504353822361</v>
+        <v>0.1695097506752227</v>
       </c>
       <c r="I13">
-        <v>-1.195902371646623</v>
+        <v>0.7489144272352194</v>
       </c>
       <c r="J13">
-        <v>-0.5880602890152882</v>
+        <v>0.06388489042290875</v>
       </c>
       <c r="K13">
-        <v>-1.161198331573261</v>
+        <v>2.115228122552837</v>
       </c>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="1">
-        <v>227</v>
+        <v>193</v>
       </c>
       <c r="B14">
-        <v>0.1978628028279705</v>
+        <v>-0.4722596513382906</v>
       </c>
       <c r="C14">
-        <v>0.4654837934881526</v>
+        <v>-0.4629498293460059</v>
       </c>
       <c r="D14">
-        <v>0.5645982089249431</v>
+        <v>-1.235056708571964</v>
       </c>
       <c r="E14">
-        <v>0.7608373643880042</v>
+        <v>-0.5430837759607994</v>
       </c>
       <c r="F14">
-        <v>0.194254689112947</v>
+        <v>-0.9547379101843088</v>
       </c>
       <c r="G14">
-        <v>1.260278146802151</v>
+        <v>-0.565277457710968</v>
       </c>
       <c r="H14">
-        <v>0.5727671051731169</v>
+        <v>-0.2453164021226081</v>
       </c>
       <c r="I14">
-        <v>0.8292992932061908</v>
+        <v>-1.586614985297438</v>
       </c>
       <c r="J14">
-        <v>1.04071857351572</v>
+        <v>-0.1571598289663357</v>
       </c>
       <c r="K14">
-        <v>0.02387510588281462</v>
+        <v>-0.8550203780237526</v>
       </c>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="1">
-        <v>321</v>
+        <v>243</v>
       </c>
       <c r="B15">
-        <v>-0.04322316628647756</v>
+        <v>0.1534945957900988</v>
       </c>
       <c r="C15">
-        <v>-0.3262736870244061</v>
+        <v>0.1335589773157504</v>
       </c>
       <c r="D15">
-        <v>0.02944436019660261</v>
+        <v>-0.1309709538737096</v>
       </c>
       <c r="E15">
-        <v>0.1242148959348592</v>
+        <v>0.405977019722875</v>
       </c>
       <c r="F15">
-        <v>0.5964454801800267</v>
+        <v>-0.2618207643266173</v>
       </c>
       <c r="G15">
-        <v>-0.1883784177325322</v>
+        <v>0.596116923770085</v>
       </c>
       <c r="H15">
-        <v>0.9363853628725182</v>
+        <v>-0.153132812611979</v>
       </c>
       <c r="I15">
-        <v>-0.5836321008771674</v>
+        <v>0.1330218687602646</v>
       </c>
       <c r="J15">
-        <v>-0.7753995739916932</v>
+        <v>-0.1255457859604092</v>
       </c>
       <c r="K15">
-        <v>0.5176557048228461</v>
+        <v>0.4764703291312705</v>
       </c>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="1">
-        <v>162</v>
+        <v>52</v>
       </c>
       <c r="B16">
-        <v>-0.7112674244230874</v>
+        <v>0.4268950656537936</v>
       </c>
       <c r="C16">
-        <v>-0.6429766792294295</v>
+        <v>-0.8357678335096036</v>
       </c>
       <c r="D16">
-        <v>-0.6672149943214574</v>
+        <v>2.079992175635817</v>
       </c>
       <c r="E16">
-        <v>-0.7045355633922116</v>
+        <v>0.2827473803901788</v>
       </c>
       <c r="F16">
-        <v>0.008788469398076131</v>
+        <v>-0.5816286777993979</v>
       </c>
       <c r="G16">
-        <v>-0.1883784177325322</v>
+        <v>0.1303490931774304</v>
       </c>
       <c r="H16">
-        <v>0.2585881719854764</v>
+        <v>-0.3835917863885517</v>
       </c>
       <c r="I16">
-        <v>-0.866218379693839</v>
+        <v>0.7797090551589672</v>
       </c>
       <c r="J16">
-        <v>-1.577197154243809</v>
+        <v>0.3064897145062702</v>
       </c>
       <c r="K16">
-        <v>0.2213873454588272</v>
+        <v>-1.367132188467992</v>
       </c>
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="1">
-        <v>89</v>
+        <v>119</v>
       </c>
       <c r="B17">
-        <v>-0.6776850474185455</v>
+        <v>-0.8774134537537727</v>
       </c>
       <c r="C17">
-        <v>-0.3262736870244061</v>
+        <v>-0.9848950351750426</v>
       </c>
       <c r="D17">
-        <v>-0.6164184151888342</v>
+        <v>-0.6320667641602753</v>
       </c>
       <c r="E17">
-        <v>-0.6441076253829274</v>
+        <v>-0.9035566184497303</v>
       </c>
       <c r="F17">
-        <v>-1.281139508169397</v>
+        <v>-1.221244504744959</v>
       </c>
       <c r="G17">
-        <v>-0.1883784177325322</v>
+        <v>-1.000805111461265</v>
       </c>
       <c r="H17">
-        <v>-1.125712914343823</v>
+        <v>-1.167152297228899</v>
       </c>
       <c r="I17">
-        <v>0.5938107275256311</v>
+        <v>-0.4131775844135769</v>
       </c>
       <c r="J17">
-        <v>0.08687530309782864</v>
+        <v>-0.377984567782065</v>
       </c>
       <c r="K17">
-        <v>-1.259954451361267</v>
+        <v>-1.059865102201448</v>
       </c>
     </row>
     <row r="18" spans="1:11">
       <c r="A18" s="1">
-        <v>314</v>
+        <v>70</v>
       </c>
       <c r="B18">
-        <v>-0.04690423163656607</v>
+        <v>-0.5714550935160857</v>
       </c>
       <c r="C18">
-        <v>0.227956549334385</v>
+        <v>-0.9103314343423232</v>
       </c>
       <c r="D18">
-        <v>0.05774295916290086</v>
+        <v>1.432336309415855</v>
       </c>
       <c r="E18">
-        <v>0.1578790916993105</v>
+        <v>-0.06805163308072026</v>
       </c>
       <c r="F18">
-        <v>0.1227077953652628</v>
+        <v>-0.7415326345357883</v>
       </c>
       <c r="G18">
-        <v>0.313079623837166</v>
+        <v>-0.5047632045299967</v>
       </c>
       <c r="H18">
-        <v>0.3367342010524529</v>
+        <v>-0.9366933234523261</v>
       </c>
       <c r="I18">
-        <v>0.1228335961645117</v>
+        <v>1.133036891336704</v>
       </c>
       <c r="J18">
-        <v>0.09431373358074795</v>
+        <v>0.09850517216394587</v>
       </c>
       <c r="K18">
-        <v>0.4188995850348396</v>
+        <v>0.2716256049535747</v>
       </c>
     </row>
     <row r="19" spans="1:11">
       <c r="A19" s="1">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="B19">
-        <v>-0.5462633154924875</v>
+        <v>-1.254482250113527</v>
       </c>
       <c r="C19">
-        <v>-0.8805039233831971</v>
+        <v>-0.9848950351750426</v>
       </c>
       <c r="D19">
-        <v>-0.03117196808464977</v>
+        <v>0.8886682924057785</v>
       </c>
       <c r="E19">
-        <v>-0.4676878523882178</v>
+        <v>-0.8658462503523885</v>
       </c>
       <c r="F19">
-        <v>1.473763216134641</v>
+        <v>0.05798714914616344</v>
       </c>
       <c r="G19">
-        <v>-0.6898364593022301</v>
+        <v>-0.9552429880399989</v>
       </c>
       <c r="H19">
-        <v>1.202719788468132</v>
+        <v>-0.4296835811438663</v>
       </c>
       <c r="I19">
-        <v>-0.866218379693839</v>
+        <v>1.487985497405165</v>
       </c>
       <c r="J19">
-        <v>0.1906111268149285</v>
+        <v>-0.1888244468504314</v>
       </c>
       <c r="K19">
-        <v>0.3201434652468335</v>
+        <v>-0.6501756538460567</v>
       </c>
     </row>
     <row r="20" spans="1:11">
       <c r="A20" s="1">
-        <v>166</v>
+        <v>183</v>
       </c>
       <c r="B20">
-        <v>-0.3762680336943484</v>
+        <v>-0.05734608381960719</v>
       </c>
       <c r="C20">
-        <v>0.227956549334385</v>
+        <v>-0.09013182518240824</v>
       </c>
       <c r="D20">
-        <v>0.2670897064398052</v>
+        <v>-0.4122266802601803</v>
       </c>
       <c r="E20">
-        <v>0.2178979571263292</v>
+        <v>0.3700729127781482</v>
       </c>
       <c r="F20">
-        <v>-0.7893414424086156</v>
+        <v>-0.7948339534479184</v>
       </c>
       <c r="G20">
-        <v>-0.3555310982557648</v>
+        <v>0.5380095122778352</v>
       </c>
       <c r="H20">
-        <v>-0.86735257334688</v>
+        <v>0.3077851349411663</v>
       </c>
       <c r="I20">
-        <v>-0.06555725637993601</v>
+        <v>-0.1117143847389938</v>
       </c>
       <c r="J20">
-        <v>0.02108306957122341</v>
+        <v>0.9887199507215131</v>
       </c>
       <c r="K20">
-        <v>0.2213873454588272</v>
+        <v>-0.03564148131296916</v>
       </c>
     </row>
     <row r="21" spans="1:11">
       <c r="A21" s="1">
-        <v>253</v>
+        <v>315</v>
       </c>
       <c r="B21">
-        <v>-0.06268449066587994</v>
+        <v>0.8402758263939349</v>
       </c>
       <c r="C21">
-        <v>-0.1679221909218943</v>
+        <v>0.05899537648303088</v>
       </c>
       <c r="D21">
-        <v>-0.3130838018166762</v>
+        <v>0.703723459918397</v>
       </c>
       <c r="E21">
-        <v>-0.2832588137913814</v>
+        <v>0.6125033623383975</v>
       </c>
       <c r="F21">
-        <v>-1.274193207805544</v>
+        <v>-0.4217247210630076</v>
       </c>
       <c r="G21">
-        <v>-0.1326608575581212</v>
+        <v>0.6204599421000769</v>
       </c>
       <c r="H21">
-        <v>-1.066704688313657</v>
+        <v>-0.2914081968779227</v>
       </c>
       <c r="I21">
-        <v>-0.6778275271493912</v>
+        <v>0.7229821089836423</v>
       </c>
       <c r="J21">
-        <v>-0.07803851160367012</v>
+        <v>0.4630755044806816</v>
       </c>
       <c r="K21">
-        <v>-0.1736371336931979</v>
+        <v>1.295849225842054</v>
       </c>
     </row>
     <row r="22" spans="1:11">
       <c r="A22" s="1">
-        <v>222</v>
+        <v>202</v>
       </c>
       <c r="B22">
-        <v>0.5149181077500209</v>
+        <v>-0.8326043727564871</v>
       </c>
       <c r="C22">
-        <v>1.098889777898199</v>
+        <v>-0.8357678335096036</v>
       </c>
       <c r="D22">
-        <v>0.8360367914560531</v>
+        <v>-1.537249585806063</v>
       </c>
       <c r="E22">
-        <v>1.083742452065134</v>
+        <v>-0.9173006832083637</v>
       </c>
       <c r="F22">
-        <v>1.533501399263775</v>
+        <v>-1.221244504744959</v>
       </c>
       <c r="G22">
-        <v>1.594583507848617</v>
+        <v>-0.9877349603578269</v>
       </c>
       <c r="H22">
-        <v>2.049567572847001</v>
+        <v>-2.411630755622391</v>
       </c>
       <c r="I22">
-        <v>1.017690145750639</v>
+        <v>-1.677378099177958</v>
       </c>
       <c r="J22">
-        <v>1.081048857355376</v>
+        <v>-1.622694304446247</v>
       </c>
       <c r="K22">
-        <v>0.3201434652468335</v>
+        <v>-0.9574427401126006</v>
       </c>
     </row>
     <row r="23" spans="1:11">
       <c r="A23" s="1">
-        <v>183</v>
+        <v>352</v>
       </c>
       <c r="B23">
-        <v>-0.0236136071383264</v>
+        <v>-0.6951298439653015</v>
       </c>
       <c r="C23">
-        <v>-0.009570694819382631</v>
+        <v>-0.4629498293460059</v>
       </c>
       <c r="D23">
-        <v>0.4193238224233121</v>
+        <v>-1.029872630265209</v>
       </c>
       <c r="E23">
-        <v>0.5880180176572427</v>
+        <v>-0.7905231160808239</v>
       </c>
       <c r="F23">
-        <v>-0.3621439700316657</v>
+        <v>-0.6349299967115281</v>
       </c>
       <c r="G23">
-        <v>-0.7455540194766411</v>
+        <v>-0.8869449644142817</v>
       </c>
       <c r="H23">
-        <v>-0.02209960588774561</v>
+        <v>-0.8445097339416971</v>
       </c>
       <c r="I23">
-        <v>0.4054198749811834</v>
+        <v>-1.077693239610239</v>
       </c>
       <c r="J23">
-        <v>1.106001032009233</v>
+        <v>-0.8459391947745514</v>
       </c>
       <c r="K23">
-        <v>0.02387510588281462</v>
+        <v>-0.4453309296683608</v>
       </c>
     </row>
     <row r="24" spans="1:11">
       <c r="A24" s="1">
-        <v>139</v>
+        <v>208</v>
       </c>
       <c r="B24">
-        <v>0.1579130055266799</v>
+        <v>-0.8433440715833346</v>
       </c>
       <c r="C24">
-        <v>0.0696050532318733</v>
+        <v>-0.6120770310114449</v>
       </c>
       <c r="D24">
-        <v>0.1182830546388127</v>
+        <v>-2.133958384963464</v>
       </c>
       <c r="E24">
-        <v>0.03028002546628125</v>
+        <v>-0.7363555336108122</v>
       </c>
       <c r="F24">
-        <v>-0.1148556770785045</v>
+        <v>-0.8481352723600485</v>
       </c>
       <c r="G24">
-        <v>0.4245147441859877</v>
+        <v>-0.8607348326454166</v>
       </c>
       <c r="H24">
-        <v>-0.2070983685769147</v>
+        <v>0.1234179559199082</v>
       </c>
       <c r="I24">
-        <v>-0.2539481089243839</v>
+        <v>-2.15550521694141</v>
       </c>
       <c r="J24">
-        <v>-0.09218640730637162</v>
+        <v>0.6949128815396279</v>
       </c>
       <c r="K24">
-        <v>1.011436303762878</v>
+        <v>-1.571976912645688</v>
       </c>
     </row>
     <row r="25" spans="1:11">
       <c r="A25" s="1">
-        <v>124</v>
+        <v>294</v>
       </c>
       <c r="B25">
-        <v>1.784813257032673</v>
+        <v>2.241584252576258</v>
       </c>
       <c r="C25">
-        <v>1.65312001425699</v>
+        <v>1.177449388973824</v>
       </c>
       <c r="D25">
-        <v>1.290426543947746</v>
+        <v>1.828048460436025</v>
       </c>
       <c r="E25">
-        <v>1.41131289930441</v>
+        <v>0.9673360045576848</v>
       </c>
       <c r="F25">
-        <v>1.670343516431676</v>
+        <v>0.3244937437068139</v>
       </c>
       <c r="G25">
-        <v>2.318911790115958</v>
+        <v>0.4785224707514593</v>
       </c>
       <c r="H25">
-        <v>2.008102332933911</v>
+        <v>0.3538769296964809</v>
       </c>
       <c r="I25">
-        <v>1.347374137703422</v>
+        <v>1.40856777275971</v>
       </c>
       <c r="J25">
-        <v>1.036979877189623</v>
+        <v>0.2003313946364565</v>
       </c>
       <c r="K25">
-        <v>0.9126801839748711</v>
+        <v>2.832184657174773</v>
       </c>
     </row>
     <row r="26" spans="1:11">
       <c r="A26" s="1">
-        <v>312</v>
+        <v>361</v>
       </c>
       <c r="B26">
-        <v>0.4360478905727018</v>
+        <v>-0.2365126168735781</v>
       </c>
       <c r="C26">
-        <v>0.0696050532318733</v>
+        <v>-0.01556822434968864</v>
       </c>
       <c r="D26">
-        <v>0.6989608164763444</v>
+        <v>-1.193182406876708</v>
       </c>
       <c r="E26">
-        <v>0.9206759885340038</v>
+        <v>-0.1625135139567821</v>
       </c>
       <c r="F26">
-        <v>0.1949493191493323</v>
+        <v>-0.5816286777993979</v>
       </c>
       <c r="G26">
-        <v>-0.2998135380813539</v>
+        <v>-0.105467858315599</v>
       </c>
       <c r="H26">
-        <v>-0.7987754457983087</v>
+        <v>0.8147948772496262</v>
       </c>
       <c r="I26">
-        <v>0.3112244487089595</v>
+        <v>-1.084176319173133</v>
       </c>
       <c r="J26">
-        <v>0.2468214007593385</v>
+        <v>-0.3782747686988911</v>
       </c>
       <c r="K26">
-        <v>-0.1736371336931979</v>
+        <v>-0.8550203780237526</v>
       </c>
     </row>
     <row r="27" spans="1:11">
       <c r="A27" s="1">
-        <v>214</v>
+        <v>249</v>
       </c>
       <c r="B27">
-        <v>2.674294382662386</v>
+        <v>-0.2093126663640913</v>
       </c>
       <c r="C27">
-        <v>3.790865211640899</v>
+        <v>-0.3138226276805668</v>
       </c>
       <c r="D27">
-        <v>3.358875942831911</v>
+        <v>-0.4534030769271822</v>
       </c>
       <c r="E27">
-        <v>2.364410053382634</v>
+        <v>0.5111413173308258</v>
       </c>
       <c r="F27">
-        <v>2.291342768960121</v>
+        <v>-0.1019168075902269</v>
       </c>
       <c r="G27">
-        <v>3.321827873255355</v>
+        <v>0.2553707188510697</v>
       </c>
       <c r="H27">
-        <v>1.478623115582151</v>
+        <v>-0.3835917863885517</v>
       </c>
       <c r="I27">
-        <v>3.419673515692347</v>
+        <v>-0.8799593129419636</v>
       </c>
       <c r="J27">
-        <v>3.41389680661729</v>
+        <v>-0.2461773333119109</v>
       </c>
       <c r="K27">
-        <v>1.406460782914903</v>
+        <v>-0.240486205490665</v>
       </c>
     </row>
     <row r="28" spans="1:11">
       <c r="A28" s="1">
-        <v>246</v>
+        <v>298</v>
       </c>
       <c r="B28">
-        <v>0.09011801797939557</v>
+        <v>0.2555834938860046</v>
       </c>
       <c r="C28">
-        <v>-0.2470979389731502</v>
+        <v>0.05899537648303088</v>
       </c>
       <c r="D28">
-        <v>0.4912262064615827</v>
+        <v>0.5062163369224386</v>
       </c>
       <c r="E28">
-        <v>0.6735535572462449</v>
+        <v>1.094110504685659</v>
       </c>
       <c r="F28">
-        <v>0.9291732676085779</v>
+        <v>1.337218803037286</v>
       </c>
       <c r="G28">
-        <v>-0.02122573720929944</v>
+        <v>0.8300448675987813</v>
       </c>
       <c r="H28">
-        <v>1.41004598803358</v>
+        <v>0.2156015454305372</v>
       </c>
       <c r="I28">
-        <v>-0.3481435351966077</v>
+        <v>0.04550029466119207</v>
       </c>
       <c r="J28">
-        <v>0.09036229051301675</v>
+        <v>0.2088859591744857</v>
       </c>
       <c r="K28">
-        <v>0.02387510588281462</v>
+        <v>0.2716256049535747</v>
       </c>
     </row>
     <row r="29" spans="1:11">
       <c r="A29" s="1">
-        <v>32</v>
+        <v>220</v>
       </c>
       <c r="B29">
-        <v>0.6200154636663336</v>
+        <v>0.2676942640256722</v>
       </c>
       <c r="C29">
-        <v>-0.2470979389731502</v>
+        <v>0.4318133806466285</v>
       </c>
       <c r="D29">
-        <v>0.474249537754172</v>
+        <v>0.8705227616711674</v>
       </c>
       <c r="E29">
-        <v>0.7277251834570307</v>
+        <v>0.1761933930370087</v>
       </c>
       <c r="F29">
-        <v>0.6033917805438795</v>
+        <v>1.230616165213026</v>
       </c>
       <c r="G29">
-        <v>0.368797184011577</v>
+        <v>0.3037619285761984</v>
       </c>
       <c r="H29">
-        <v>0.7481969663438807</v>
+        <v>0.4460605192071099</v>
       </c>
       <c r="I29">
-        <v>-0.06555725637993601</v>
+        <v>1.1946261471842</v>
       </c>
       <c r="J29">
-        <v>0.6612550044345739</v>
+        <v>-0.1040297215611306</v>
       </c>
       <c r="K29">
-        <v>0.122631225670821</v>
+        <v>1.091004501664358</v>
       </c>
     </row>
     <row r="30" spans="1:11">
       <c r="A30" s="1">
-        <v>161</v>
+        <v>182</v>
       </c>
       <c r="B30">
-        <v>-0.7095812442243215</v>
+        <v>-0.04301650294462456</v>
       </c>
       <c r="C30">
-        <v>-0.4054494350756618</v>
+        <v>-0.6120770310114449</v>
       </c>
       <c r="D30">
-        <v>-0.3012845704840478</v>
+        <v>0.5013310017246587</v>
       </c>
       <c r="E30">
-        <v>-0.2692223721313296</v>
+        <v>-0.5245767183878807</v>
       </c>
       <c r="F30">
-        <v>0.08033536314576042</v>
+        <v>-0.4750260399751377</v>
       </c>
       <c r="G30">
-        <v>-0.07694329738371039</v>
+        <v>-0.1891442971272456</v>
       </c>
       <c r="H30">
-        <v>0.4005268778418216</v>
+        <v>-0.1992246073672936</v>
       </c>
       <c r="I30">
-        <v>-0.6307298140132793</v>
+        <v>-0.04040050954715688</v>
       </c>
       <c r="J30">
-        <v>-0.5870369632277016</v>
+        <v>-0.1446855340808071</v>
       </c>
       <c r="K30">
-        <v>0.122631225670821</v>
+        <v>-0.8550203780237526</v>
       </c>
     </row>
     <row r="31" spans="1:11">
       <c r="A31" s="1">
-        <v>127</v>
+        <v>206</v>
       </c>
       <c r="B31">
-        <v>1.521910906795189</v>
+        <v>-0.427266256670112</v>
       </c>
       <c r="C31">
-        <v>0.9405382817956875</v>
+        <v>-0.8357678335096036</v>
       </c>
       <c r="D31">
-        <v>0.9516435166192067</v>
+        <v>-1.078725982243008</v>
       </c>
       <c r="E31">
-        <v>1.221268957607489</v>
+        <v>-0.4060718689729342</v>
       </c>
       <c r="F31">
-        <v>0.7694083592399625</v>
+        <v>-1.43444978039348</v>
       </c>
       <c r="G31">
-        <v>2.597499590988013</v>
+        <v>-0.366165644829435</v>
       </c>
       <c r="H31">
-        <v>1.174013083912916</v>
+        <v>-1.904621013313931</v>
       </c>
       <c r="I31">
-        <v>1.582862703383982</v>
+        <v>-0.9836885859482718</v>
       </c>
       <c r="J31">
-        <v>1.593819085031466</v>
+        <v>-1.282298833103626</v>
       </c>
       <c r="K31">
-        <v>-0.7661738524212357</v>
+        <v>-0.240486205490665</v>
       </c>
     </row>
     <row r="32" spans="1:11">
       <c r="A32" s="1">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="B32">
-        <v>-0.8607084823375633</v>
+        <v>0.3224040025107557</v>
       </c>
       <c r="C32">
-        <v>-0.5638009311781736</v>
+        <v>0.05899537648303088</v>
       </c>
       <c r="D32">
-        <v>-0.7100329125611455</v>
+        <v>0.6388182922907499</v>
       </c>
       <c r="E32">
-        <v>-0.7603845908947711</v>
+        <v>-0.08436418700133945</v>
       </c>
       <c r="F32">
-        <v>-0.2398890836278557</v>
+        <v>0.271192424794684</v>
       </c>
       <c r="G32">
-        <v>-0.801271579651052</v>
+        <v>0.08444940291891519</v>
       </c>
       <c r="H32">
-        <v>-1.144850717380633</v>
+        <v>0.3538769296964809</v>
       </c>
       <c r="I32">
-        <v>-1.007511519102175</v>
+        <v>1.05848147636342</v>
       </c>
       <c r="J32">
-        <v>-0.1321844403360348</v>
+        <v>0.1494075777759761</v>
       </c>
       <c r="K32">
-        <v>-0.6674177326332293</v>
+        <v>-0.1380638434018172</v>
       </c>
     </row>
     <row r="33" spans="1:11">
       <c r="A33" s="1">
-        <v>172</v>
+        <v>318</v>
       </c>
       <c r="B33">
-        <v>-0.756566325337569</v>
+        <v>0.7372730674761933</v>
       </c>
       <c r="C33">
-        <v>-0.2470979389731502</v>
+        <v>0.05899537648303088</v>
       </c>
       <c r="D33">
-        <v>-0.4621195719477656</v>
+        <v>0.7525768118961959</v>
       </c>
       <c r="E33">
-        <v>-0.4605527267364665</v>
+        <v>0.6380528400846857</v>
       </c>
       <c r="F33">
-        <v>-0.2093253620269032</v>
+        <v>-0.6349299967115281</v>
       </c>
       <c r="G33">
-        <v>-0.02122573720929944</v>
+        <v>0.9154597255787399</v>
       </c>
       <c r="H33">
-        <v>0.1262183676475365</v>
+        <v>-0.7984179391863826</v>
       </c>
       <c r="I33">
-        <v>0.2170290224367356</v>
+        <v>0.988788371062307</v>
       </c>
       <c r="J33">
-        <v>-0.03554530288235274</v>
+        <v>-0.4246646726399306</v>
       </c>
       <c r="K33">
-        <v>-0.6674177326332293</v>
+        <v>1.398271587930902</v>
       </c>
     </row>
     <row r="34" spans="1:11">
       <c r="A34" s="1">
-        <v>171</v>
+        <v>337</v>
       </c>
       <c r="B34">
-        <v>0.1498027698061495</v>
+        <v>-0.3890396786610208</v>
       </c>
       <c r="C34">
-        <v>-0.009570694819382631</v>
+        <v>-0.4629498293460059</v>
       </c>
       <c r="D34">
-        <v>0.001467665787483501</v>
+        <v>1.118976951729687</v>
       </c>
       <c r="E34">
-        <v>-0.07219568688830839</v>
+        <v>-0.5341555646380175</v>
       </c>
       <c r="F34">
-        <v>0.3824994289733591</v>
+        <v>-0.7948339534479184</v>
       </c>
       <c r="G34">
-        <v>-1.079859380523106</v>
+        <v>-0.5544902846669477</v>
       </c>
       <c r="H34">
-        <v>0.7099213602702594</v>
+        <v>-0.3374999916332372</v>
       </c>
       <c r="I34">
-        <v>-0.4894366746049436</v>
+        <v>-0.9220993301007764</v>
       </c>
       <c r="J34">
-        <v>0.04505605382278136</v>
+        <v>0.2274427888052356</v>
       </c>
       <c r="K34">
-        <v>1.20894854333889</v>
+        <v>-1.059865102201448</v>
       </c>
     </row>
     <row r="35" spans="1:11">
       <c r="A35" s="1">
-        <v>4</v>
+        <v>342</v>
       </c>
       <c r="B35">
-        <v>2.081192676858113</v>
+        <v>-0.5768666550854925</v>
       </c>
       <c r="C35">
-        <v>2.524053242820805</v>
+        <v>-0.8357678335096036</v>
       </c>
       <c r="D35">
-        <v>1.379112221701028</v>
+        <v>0.6876716442685488</v>
       </c>
       <c r="E35">
-        <v>1.383001723270615</v>
+        <v>-0.3750487541787367</v>
       </c>
       <c r="F35">
-        <v>1.964172021822652</v>
+        <v>-0.8481352723600485</v>
       </c>
       <c r="G35">
-        <v>1.873171308720671</v>
+        <v>-0.3968608252048485</v>
       </c>
       <c r="H35">
-        <v>1.966637093020822</v>
+        <v>-1.259335886739528</v>
       </c>
       <c r="I35">
-        <v>1.30027642456731</v>
+        <v>0.1249180193066468</v>
       </c>
       <c r="J35">
-        <v>0.3243052111789131</v>
+        <v>-1.012724860666386</v>
       </c>
       <c r="K35">
-        <v>2.986558699523003</v>
+        <v>-0.03564148131296916</v>
       </c>
     </row>
     <row r="36" spans="1:11">
       <c r="A36" s="1">
-        <v>50</v>
+        <v>331</v>
       </c>
       <c r="B36">
-        <v>-0.6652160028775751</v>
+        <v>-0.5102717379310989</v>
       </c>
       <c r="C36">
-        <v>-0.4054494350756618</v>
+        <v>-0.2392590268478473</v>
       </c>
       <c r="D36">
-        <v>0.08908770541741415</v>
+        <v>-1.274837295182458</v>
       </c>
       <c r="E36">
-        <v>-0.07750900856612911</v>
+        <v>-0.008124556722438826</v>
       </c>
       <c r="F36">
-        <v>0.997941641210721</v>
+        <v>0.05798714914616344</v>
       </c>
       <c r="G36">
-        <v>-0.2998135380813539</v>
+        <v>-0.02405342954961507</v>
       </c>
       <c r="H36">
-        <v>1.266512465257501</v>
+        <v>0.2156015454305372</v>
       </c>
       <c r="I36">
-        <v>-0.5365343877410554</v>
+        <v>-1.312704873765156</v>
       </c>
       <c r="J36">
-        <v>-0.1202456136464607</v>
+        <v>-0.08143866534894566</v>
       </c>
       <c r="K36">
-        <v>0.2213873454588272</v>
+        <v>-0.5477532917572089</v>
       </c>
     </row>
     <row r="37" spans="1:11">
       <c r="A37" s="1">
-        <v>370</v>
+        <v>97</v>
       </c>
       <c r="B37">
-        <v>-0.5887074525083615</v>
+        <v>-0.8354214233159104</v>
       </c>
       <c r="C37">
-        <v>-0.4054494350756618</v>
+        <v>-0.3883862285132863</v>
       </c>
       <c r="D37">
-        <v>-0.3348881251361617</v>
+        <v>-1.638445814902932</v>
       </c>
       <c r="E37">
-        <v>-0.2474685287941984</v>
+        <v>-0.7371815916749626</v>
       </c>
       <c r="F37">
-        <v>-1.546488182068576</v>
+        <v>-0.5816286777993979</v>
       </c>
       <c r="G37">
-        <v>-0.5784013389534084</v>
+        <v>-0.7419157891531585</v>
       </c>
       <c r="H37">
-        <v>-1.473383002845882</v>
+        <v>0.9991620562708845</v>
       </c>
       <c r="I37">
-        <v>-0.2539481089243839</v>
+        <v>-1.583373445515991</v>
       </c>
       <c r="J37">
-        <v>0.8823056517408703</v>
+        <v>0.1781297588237093</v>
       </c>
       <c r="K37">
-        <v>-0.8649299722092419</v>
+        <v>-1.162287464290296</v>
       </c>
     </row>
     <row r="38" spans="1:11">
       <c r="A38" s="1">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="B38">
-        <v>1.957915357380216</v>
+        <v>-0.1168919819932676</v>
       </c>
       <c r="C38">
-        <v>1.573944266205735</v>
+        <v>0.05899537648303088</v>
       </c>
       <c r="D38">
-        <v>1.132081473790302</v>
+        <v>-1.11990237891001</v>
       </c>
       <c r="E38">
-        <v>1.264496488874431</v>
+        <v>-0.1436909494338053</v>
       </c>
       <c r="F38">
-        <v>1.243146044054726</v>
+        <v>-0.1552181265023571</v>
       </c>
       <c r="G38">
-        <v>1.483148387499795</v>
+        <v>-0.234228159344273</v>
       </c>
       <c r="H38">
-        <v>1.540820975451786</v>
+        <v>-0.2453164021226081</v>
       </c>
       <c r="I38">
-        <v>1.394471850839534</v>
+        <v>-1.058244000921556</v>
       </c>
       <c r="J38">
-        <v>1.431655444187375</v>
+        <v>-0.1838354425096946</v>
       </c>
       <c r="K38">
-        <v>1.110192423550884</v>
+        <v>0.4764703291312705</v>
       </c>
     </row>
     <row r="39" spans="1:11">
       <c r="A39" s="1">
-        <v>165</v>
+        <v>75</v>
       </c>
       <c r="B39">
-        <v>-0.6781856439138738</v>
+        <v>-1.180045855690927</v>
       </c>
       <c r="C39">
-        <v>-0.7221524272806854</v>
+        <v>-0.761204232676884</v>
       </c>
       <c r="D39">
-        <v>-0.7368410015121315</v>
+        <v>-0.02837891472033198</v>
       </c>
       <c r="E39">
-        <v>-0.7828197232096109</v>
+        <v>-0.7332410374615469</v>
       </c>
       <c r="F39">
-        <v>-0.07526176500454328</v>
+        <v>-0.5816286777993979</v>
       </c>
       <c r="G39">
-        <v>-0.244095977906943</v>
+        <v>-0.771961631552304</v>
       </c>
       <c r="H39">
-        <v>-0.08429746575738004</v>
+        <v>-0.8445097339416971</v>
       </c>
       <c r="I39">
-        <v>-1.148804658510511</v>
+        <v>0.01794720651889146</v>
       </c>
       <c r="J39">
-        <v>-0.4888684753277893</v>
+        <v>-0.7814357661982374</v>
       </c>
       <c r="K39">
-        <v>0.122631225670821</v>
+        <v>-0.240486205490665</v>
       </c>
     </row>
     <row r="40" spans="1:11">
       <c r="A40" s="1">
-        <v>309</v>
+        <v>101</v>
       </c>
       <c r="B40">
-        <v>0.05769184055493843</v>
+        <v>-0.6704004061182487</v>
       </c>
       <c r="C40">
-        <v>0.0696050532318733</v>
+        <v>-0.761204232676884</v>
       </c>
       <c r="D40">
-        <v>-0.447747875590601</v>
+        <v>-0.7807205351784348</v>
       </c>
       <c r="E40">
-        <v>-0.4434560640991738</v>
+        <v>-0.3934092198179315</v>
       </c>
       <c r="F40">
-        <v>-0.5427477794918396</v>
+        <v>-0.7948339534479184</v>
       </c>
       <c r="G40">
-        <v>0.870255225581275</v>
+        <v>-0.3844388463666975</v>
       </c>
       <c r="H40">
-        <v>-0.3410629898345888</v>
+        <v>-0.4296835811438663</v>
       </c>
       <c r="I40">
-        <v>0.3112244487089595</v>
+        <v>-0.5590468745786977</v>
       </c>
       <c r="J40">
-        <v>-0.4805272569889388</v>
+        <v>0.4267421351454598</v>
       </c>
       <c r="K40">
-        <v>-0.3711493732692104</v>
+        <v>-0.8550203780237526</v>
       </c>
     </row>
     <row r="41" spans="1:11">
       <c r="A41" s="1">
-        <v>297</v>
+        <v>383</v>
       </c>
       <c r="B41">
-        <v>0.4196198862549066</v>
+        <v>-0.7789215728342193</v>
       </c>
       <c r="C41">
-        <v>1.019714029846944</v>
+        <v>-0.8357678335096036</v>
       </c>
       <c r="D41">
-        <v>-0.2404008211036689</v>
+        <v>-1.221796513035133</v>
       </c>
       <c r="E41">
-        <v>-0.1967946713657968</v>
+        <v>-0.7077991971448336</v>
       </c>
       <c r="F41">
-        <v>1.078518725431414</v>
+        <v>-0.7948339534479184</v>
       </c>
       <c r="G41">
-        <v>1.483148387499795</v>
+        <v>-0.7642886243482364</v>
       </c>
       <c r="H41">
-        <v>1.330305142046869</v>
+        <v>-0.6140507601651244</v>
       </c>
       <c r="I41">
-        <v>1.253178711431199</v>
+        <v>-1.123074796550498</v>
       </c>
       <c r="J41">
-        <v>0.4134040848084412</v>
+        <v>-0.4259628997560693</v>
       </c>
       <c r="K41">
-        <v>0.4188995850348396</v>
+        <v>-1.46955455055684</v>
       </c>
     </row>
     <row r="42" spans="1:11">
       <c r="A42" s="1">
-        <v>187</v>
+        <v>141</v>
       </c>
       <c r="B42">
-        <v>-0.8215259736415093</v>
+        <v>0.7765437671482869</v>
       </c>
       <c r="C42">
-        <v>-0.4846251831269178</v>
+        <v>-0.1646954260151278</v>
       </c>
       <c r="D42">
-        <v>-0.2613368196773211</v>
+        <v>1.346493990940579</v>
       </c>
       <c r="E42">
-        <v>-0.2217002702382732</v>
+        <v>1.315487666965457</v>
       </c>
       <c r="F42">
-        <v>-0.1537549591160804</v>
+        <v>-0.3151220832387474</v>
       </c>
       <c r="G42">
-        <v>-0.7455540194766411</v>
+        <v>1.378731913103824</v>
       </c>
       <c r="H42">
-        <v>-0.4431312726975786</v>
+        <v>-0.9827851182076407</v>
       </c>
       <c r="I42">
-        <v>-0.3010458220604957</v>
+        <v>1.496089346858783</v>
       </c>
       <c r="J42">
-        <v>-0.1621078216231572</v>
+        <v>-0.7717427027988135</v>
       </c>
       <c r="K42">
-        <v>-0.4699054930572168</v>
+        <v>1.603116312108598</v>
       </c>
     </row>
   </sheetData>
